--- a/지하철노선.xlsx
+++ b/지하철노선.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2C000013\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thsdn\Downloads\Subway_Tk-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9D03B-16A9-4F33-B7B0-003A5D6ED45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20805" yWindow="2670" windowWidth="12015" windowHeight="10725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="5688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="3호선" sheetId="3" r:id="rId3"/>
     <sheet name="4호선" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>소요산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도봉산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,26 +110,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>y좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>잠실새내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y좌표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x좌표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,27 +446,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -494,7 +488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -505,7 +499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,7 +510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -527,7 +521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -538,7 +532,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -549,7 +543,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -560,7 +554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -571,15 +565,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -590,29 +584,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F612D90-F0B2-45FE-9A44-B45B15FE9DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <f>'1호선'!B2</f>
@@ -623,9 +617,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>'1호선'!B3</f>
@@ -636,9 +630,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>'1호선'!B4</f>
@@ -649,9 +643,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <f>'1호선'!B5</f>
@@ -662,9 +656,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>'1호선'!B6</f>
@@ -675,9 +669,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <f>'1호선'!B7</f>
@@ -688,9 +682,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <f>'1호선'!B8</f>
@@ -701,9 +695,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <f>'1호선'!B9</f>
@@ -714,9 +708,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <f>'1호선'!B10</f>
@@ -727,16 +721,14 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <f>'1호선'!B11</f>
         <v>500</v>
       </c>
       <c r="C11">
-        <f>'1호선'!C11-30</f>
         <v>470</v>
       </c>
     </row>
@@ -748,12 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C948B978-E515-45FE-BD0A-3F1A55339E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,12 +753,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C54688-7EF0-492F-B0FA-E31F12297DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/지하철노선.xlsx
+++ b/지하철노선.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="1호선" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>소요산</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덕정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의정부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,26 @@
   </si>
   <si>
     <t>잠실새내</t>
+  </si>
+  <si>
+    <t>녹차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -447,26 +463,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -488,7 +507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -499,20 +518,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -521,9 +540,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -532,9 +551,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>350</v>
@@ -543,9 +562,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>400</v>
@@ -554,9 +573,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>450</v>
@@ -565,14 +584,42 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
       <c r="C11">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>420</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="C14">
         <v>470</v>
       </c>
     </row>
@@ -587,26 +634,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <f>'1호선'!B2</f>
@@ -619,7 +666,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <f>'1호선'!B3</f>
@@ -632,7 +679,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>'1호선'!B4</f>
@@ -645,20 +692,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <f>'1호선'!B5</f>
         <v>200</v>
       </c>
       <c r="C5">
-        <f>'1호선'!C5-30</f>
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f>'1호선'!B6</f>
@@ -671,7 +717,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <f>'1호선'!B7</f>
@@ -684,7 +730,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <f>'1호선'!B8</f>
@@ -697,7 +743,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <f>'1호선'!B9</f>
@@ -710,7 +756,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f>'1호선'!B10</f>
@@ -723,7 +769,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>500</v>
